--- a/Dataset/user.xlsx
+++ b/Dataset/user.xlsx
@@ -39,124 +39,127 @@
     <t>TranThanh123</t>
   </si>
   <si>
-    <t>0905 123 456</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t>HoangAnh456</t>
   </si>
   <si>
-    <t>0937 456 789</t>
-  </si>
-  <si>
     <t>NguyenPhong789</t>
   </si>
   <si>
-    <t>0968 321 654</t>
-  </si>
-  <si>
     <t>MinhThu2024</t>
   </si>
   <si>
-    <t>0912 987 654</t>
-  </si>
-  <si>
     <t>KhanhLinh098</t>
   </si>
   <si>
-    <t>0987 654 321</t>
-  </si>
-  <si>
     <t>BaoTram567</t>
   </si>
   <si>
-    <t>0923 123 789</t>
-  </si>
-  <si>
     <t>ThaiDuong1234</t>
   </si>
   <si>
-    <t>0945 678 912</t>
-  </si>
-  <si>
     <t>QuynhAnh9876</t>
   </si>
   <si>
-    <t>0978 234 567</t>
-  </si>
-  <si>
     <t>KimNgan321</t>
   </si>
   <si>
-    <t>0907 876 543</t>
-  </si>
-  <si>
     <t>TrungKhoa999</t>
   </si>
   <si>
-    <t>0936 543 210</t>
-  </si>
-  <si>
     <t>HieuHoang555</t>
   </si>
   <si>
-    <t>0962 345 678</t>
-  </si>
-  <si>
     <t>NgocAnh4321</t>
   </si>
   <si>
-    <t>0918 765 432</t>
-  </si>
-  <si>
     <t>VietAnh777</t>
   </si>
   <si>
-    <t>0981 234 567</t>
-  </si>
-  <si>
     <t>LinhNguyen234</t>
   </si>
   <si>
-    <t>0928 654 321</t>
-  </si>
-  <si>
     <t>KhangTran666</t>
   </si>
   <si>
-    <t>0949 876 543</t>
-  </si>
-  <si>
     <t>MinhHoangabc1</t>
   </si>
   <si>
-    <t>0973 210 987</t>
-  </si>
-  <si>
     <t>DuyNguyen789</t>
   </si>
   <si>
-    <t>0909 543 678</t>
-  </si>
-  <si>
     <t>TuanAnh5678</t>
   </si>
   <si>
-    <t>0935 678 123</t>
-  </si>
-  <si>
     <t>ThuTrang9876</t>
   </si>
   <si>
-    <t>0964 432 109</t>
-  </si>
-  <si>
     <t>HaiAnh999</t>
   </si>
   <si>
-    <t>0917 890 123</t>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>0905123456</t>
+  </si>
+  <si>
+    <t>0937456789</t>
+  </si>
+  <si>
+    <t>0968321654</t>
+  </si>
+  <si>
+    <t>0912987654</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>0923123789</t>
+  </si>
+  <si>
+    <t>0945678912</t>
+  </si>
+  <si>
+    <t>0978234567</t>
+  </si>
+  <si>
+    <t>0907876543</t>
+  </si>
+  <si>
+    <t>0936543210</t>
+  </si>
+  <si>
+    <t>0962345678</t>
+  </si>
+  <si>
+    <t>0918765432</t>
+  </si>
+  <si>
+    <t>0981234567</t>
+  </si>
+  <si>
+    <t>0928654321</t>
+  </si>
+  <si>
+    <t>0949876543</t>
+  </si>
+  <si>
+    <t>0973210987</t>
+  </si>
+  <si>
+    <t>0909543678</t>
+  </si>
+  <si>
+    <t>0935678123</t>
+  </si>
+  <si>
+    <t>0964432109</t>
+  </si>
+  <si>
+    <t>0917890123</t>
   </si>
   <si>
     <t>Tran Thanh</t>
@@ -174,7 +177,7 @@
     <t>Le Khanh Linh</t>
   </si>
   <si>
-    <t>Đang Bao Tram</t>
+    <t>Dang Bao Tram</t>
   </si>
   <si>
     <t>Thai Duong</t>
@@ -207,7 +210,7 @@
     <t>Nguyen Minh Hoang</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nguyen Duy</t>
+    <t>Nguyen Duy</t>
   </si>
   <si>
     <t>Tran Tuan Anh</t>
@@ -217,9 +220,6 @@
   </si>
   <si>
     <t>Nguyen Hai Anh</t>
-  </si>
-  <si>
-    <t>Nu</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +331,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +621,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -645,344 +651,344 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>49</v>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>51</v>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>52</v>
+      <c r="B8" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>53</v>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>55</v>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>56</v>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>57</v>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>62</v>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>63</v>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>65</v>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/user.xlsx
+++ b/Dataset/user.xlsx
@@ -102,9 +102,6 @@
     <t>Nu</t>
   </si>
   <si>
-    <t>0905123456</t>
-  </si>
-  <si>
     <t>0937456789</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Nguyen Hai Anh</t>
+  </si>
+  <si>
+    <t>0905123457</t>
   </si>
 </sst>
 </file>
@@ -332,11 +332,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +621,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -655,14 +655,14 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>47</v>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>27</v>
+      <c r="D2" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -672,14 +672,14 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>48</v>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -689,14 +689,14 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -706,14 +706,14 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>50</v>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>30</v>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -723,14 +723,14 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>51</v>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -740,14 +740,14 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -757,14 +757,14 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>53</v>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
@@ -774,14 +774,14 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>54</v>
+      <c r="B9" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -791,14 +791,14 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>55</v>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>35</v>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -808,14 +808,14 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>6</v>
@@ -825,14 +825,14 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>6</v>
@@ -842,14 +842,14 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
+      <c r="B13" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -859,14 +859,14 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>59</v>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>6</v>
@@ -876,14 +876,14 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
+      <c r="B15" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -893,14 +893,14 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>6</v>
@@ -910,14 +910,14 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>42</v>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -927,14 +927,14 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
+      <c r="D18" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>6</v>
@@ -944,14 +944,14 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>64</v>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>44</v>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>6</v>
@@ -961,14 +961,14 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>65</v>
+      <c r="B20" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
@@ -978,14 +978,14 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>66</v>
+      <c r="B21" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
